--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H2">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I2">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J2">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N2">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O2">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P2">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q2">
-        <v>12076.78779482335</v>
+        <v>12229.61288253015</v>
       </c>
       <c r="R2">
-        <v>12076.78779482335</v>
+        <v>48918.45153012058</v>
       </c>
       <c r="S2">
-        <v>0.06382045865616337</v>
+        <v>0.06244677206666838</v>
       </c>
       <c r="T2">
-        <v>0.06382045865616337</v>
+        <v>0.03581286464099695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H3">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I3">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J3">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N3">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P3">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q3">
-        <v>1804.350509579051</v>
+        <v>1966.578523025399</v>
       </c>
       <c r="R3">
-        <v>1804.350509579051</v>
+        <v>11799.47113815239</v>
       </c>
       <c r="S3">
-        <v>0.009535190901274053</v>
+        <v>0.01004173083466935</v>
       </c>
       <c r="T3">
-        <v>0.009535190901274053</v>
+        <v>0.008638312323639494</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H4">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I4">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J4">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N4">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O4">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P4">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q4">
-        <v>336.4546530352824</v>
+        <v>376.3380575164078</v>
       </c>
       <c r="R4">
-        <v>336.4546530352824</v>
+        <v>2258.028345098447</v>
       </c>
       <c r="S4">
-        <v>0.001778013378931456</v>
+        <v>0.001921655012589228</v>
       </c>
       <c r="T4">
-        <v>0.001778013378931456</v>
+        <v>0.001653087147060513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H5">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I5">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J5">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N5">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O5">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P5">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q5">
-        <v>385.7618505574962</v>
+        <v>398.7326377971856</v>
       </c>
       <c r="R5">
-        <v>385.7618505574962</v>
+        <v>2392.395826783114</v>
       </c>
       <c r="S5">
-        <v>0.002038580014230503</v>
+        <v>0.00203600607698965</v>
       </c>
       <c r="T5">
-        <v>0.002038580014230503</v>
+        <v>0.001751456663739954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H6">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I6">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J6">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N6">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O6">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P6">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q6">
-        <v>7351.863270982702</v>
+        <v>7493.760715689858</v>
       </c>
       <c r="R6">
-        <v>7351.863270982702</v>
+        <v>44962.56429413914</v>
       </c>
       <c r="S6">
-        <v>0.03885133148838114</v>
+        <v>0.03826459364084329</v>
       </c>
       <c r="T6">
-        <v>0.03885133148838114</v>
+        <v>0.03291678658280209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H7">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I7">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J7">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N7">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O7">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P7">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q7">
-        <v>456.0644109729669</v>
+        <v>465.8744842591512</v>
       </c>
       <c r="R7">
-        <v>456.0644109729669</v>
+        <v>1863.497937036605</v>
       </c>
       <c r="S7">
-        <v>0.002410097815705925</v>
+        <v>0.00237884534937046</v>
       </c>
       <c r="T7">
-        <v>0.002410097815705925</v>
+        <v>0.001364254126825271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H8">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J8">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N8">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O8">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P8">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q8">
-        <v>3022.301602743937</v>
+        <v>3206.720086234205</v>
       </c>
       <c r="R8">
-        <v>3022.301602743937</v>
+        <v>19240.32051740523</v>
       </c>
       <c r="S8">
-        <v>0.01597152138145995</v>
+        <v>0.01637413385281625</v>
       </c>
       <c r="T8">
-        <v>0.01597152138145995</v>
+        <v>0.0140857073923315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H9">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J9">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N9">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P9">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q9">
-        <v>451.5514828661749</v>
+        <v>515.6554758941527</v>
       </c>
       <c r="R9">
-        <v>451.5514828661749</v>
+        <v>4640.899283047374</v>
       </c>
       <c r="S9">
-        <v>0.002386248995427638</v>
+        <v>0.002633036734473446</v>
       </c>
       <c r="T9">
-        <v>0.002386248995427638</v>
+        <v>0.003397570704664243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H10">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J10">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N10">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O10">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P10">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q10">
-        <v>84.20015772365097</v>
+        <v>98.67939564760412</v>
       </c>
       <c r="R10">
-        <v>84.20015772365097</v>
+        <v>888.1145608284371</v>
       </c>
       <c r="S10">
-        <v>0.0004449604295562853</v>
+        <v>0.0005038761068623164</v>
       </c>
       <c r="T10">
-        <v>0.0004449604295562853</v>
+        <v>0.0006501826112190691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H11">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J11">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N11">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O11">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P11">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q11">
-        <v>96.53963280841447</v>
+        <v>104.5514662600549</v>
       </c>
       <c r="R11">
-        <v>96.53963280841447</v>
+        <v>940.9631963404939</v>
       </c>
       <c r="S11">
-        <v>0.0005101690738469028</v>
+        <v>0.0005338600367395171</v>
       </c>
       <c r="T11">
-        <v>0.0005101690738469028</v>
+        <v>0.0006888727367413234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H12">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J12">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N12">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O12">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P12">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q12">
-        <v>1839.855806406534</v>
+        <v>1964.934887085641</v>
       </c>
       <c r="R12">
-        <v>1839.855806406534</v>
+        <v>17684.41398377077</v>
       </c>
       <c r="S12">
-        <v>0.009722820622583263</v>
+        <v>0.01003333811121387</v>
       </c>
       <c r="T12">
-        <v>0.009722820622583263</v>
+        <v>0.01294663883353249</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H13">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J13">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N13">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O13">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P13">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q13">
-        <v>114.1333460234265</v>
+        <v>122.1566929949092</v>
       </c>
       <c r="R13">
-        <v>114.1333460234265</v>
+        <v>732.940157969455</v>
       </c>
       <c r="S13">
-        <v>0.0006031440325795858</v>
+        <v>0.0006237557343101186</v>
       </c>
       <c r="T13">
-        <v>0.0006031440325795858</v>
+        <v>0.0005365804894938036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H14">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I14">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J14">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N14">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O14">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P14">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q14">
-        <v>32347.44130612687</v>
+        <v>33559.03185348776</v>
       </c>
       <c r="R14">
-        <v>32347.44130612687</v>
+        <v>201354.1911209266</v>
       </c>
       <c r="S14">
-        <v>0.1709418576846442</v>
+        <v>0.1713589165137376</v>
       </c>
       <c r="T14">
-        <v>0.1709418576846442</v>
+        <v>0.147410029670933</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H15">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I15">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J15">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N15">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O15">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P15">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q15">
-        <v>4832.91775891821</v>
+        <v>5396.448107598683</v>
       </c>
       <c r="R15">
-        <v>4832.91775891821</v>
+        <v>48568.03296838815</v>
       </c>
       <c r="S15">
-        <v>0.02553982344161815</v>
+        <v>0.02755530924664067</v>
       </c>
       <c r="T15">
-        <v>0.02553982344161815</v>
+        <v>0.03555632560252617</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H16">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I16">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J16">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N16">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O16">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P16">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q16">
-        <v>901.1872466532207</v>
+        <v>1032.701605617786</v>
       </c>
       <c r="R16">
-        <v>901.1872466532207</v>
+        <v>9294.314450560072</v>
       </c>
       <c r="S16">
-        <v>0.004762374266536894</v>
+        <v>0.005273174416748539</v>
       </c>
       <c r="T16">
-        <v>0.004762374266536894</v>
+        <v>0.006804304202961539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H17">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I17">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J17">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N17">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O17">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P17">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q17">
-        <v>1033.255616563892</v>
+        <v>1094.154117664318</v>
       </c>
       <c r="R17">
-        <v>1033.255616563892</v>
+        <v>9847.387058978864</v>
       </c>
       <c r="S17">
-        <v>0.005460296933132379</v>
+        <v>0.005586962845667317</v>
       </c>
       <c r="T17">
-        <v>0.005460296933132379</v>
+        <v>0.00720920488649502</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H18">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I18">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J18">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N18">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O18">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P18">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q18">
-        <v>19691.82283311465</v>
+        <v>20563.4762911827</v>
       </c>
       <c r="R18">
-        <v>19691.82283311465</v>
+        <v>185071.2866206443</v>
       </c>
       <c r="S18">
-        <v>0.1040625360266728</v>
+        <v>0.1050010927727875</v>
       </c>
       <c r="T18">
-        <v>0.1040625360266728</v>
+        <v>0.1354894263690923</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H19">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I19">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J19">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N19">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O19">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P19">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q19">
-        <v>1221.559657782921</v>
+        <v>1278.396692287246</v>
       </c>
       <c r="R19">
-        <v>1221.559657782921</v>
+        <v>7670.380153723479</v>
       </c>
       <c r="S19">
-        <v>0.006455400141169104</v>
+        <v>0.006527741116653263</v>
       </c>
       <c r="T19">
-        <v>0.006455400141169104</v>
+        <v>0.005615432982811163</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H20">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I20">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J20">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N20">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O20">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P20">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q20">
-        <v>41114.58546192317</v>
+        <v>41254.92239398018</v>
       </c>
       <c r="R20">
-        <v>41114.58546192317</v>
+        <v>247529.5343638811</v>
       </c>
       <c r="S20">
-        <v>0.2172723199427836</v>
+        <v>0.2106556241894702</v>
       </c>
       <c r="T20">
-        <v>0.2172723199427836</v>
+        <v>0.1812146834485222</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H21">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I21">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J21">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N21">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O21">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P21">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q21">
-        <v>6142.786019735444</v>
+        <v>6633.983031873047</v>
       </c>
       <c r="R21">
-        <v>6142.786019735444</v>
+        <v>59705.84728685742</v>
       </c>
       <c r="S21">
-        <v>0.0324618953207266</v>
+        <v>0.03387440226152233</v>
       </c>
       <c r="T21">
-        <v>0.0324618953207266</v>
+        <v>0.04371024348233266</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H22">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I22">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J22">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N22">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O22">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P22">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q22">
-        <v>1145.436503588342</v>
+        <v>1269.524841535996</v>
       </c>
       <c r="R22">
-        <v>1145.436503588342</v>
+        <v>11425.72357382396</v>
       </c>
       <c r="S22">
-        <v>0.006053123087238065</v>
+        <v>0.00648243972837594</v>
       </c>
       <c r="T22">
-        <v>0.006053123087238065</v>
+        <v>0.008364694281519846</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H23">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I23">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J23">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N23">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O23">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P23">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q23">
-        <v>1313.299433769491</v>
+        <v>1345.069887843145</v>
       </c>
       <c r="R23">
-        <v>1313.299433769491</v>
+        <v>12105.6289905883</v>
       </c>
       <c r="S23">
-        <v>0.006940204103940253</v>
+        <v>0.0068681873667372</v>
       </c>
       <c r="T23">
-        <v>0.006940204103940253</v>
+        <v>0.008862448398783133</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H24">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I24">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J24">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N24">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O24">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P24">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q24">
-        <v>25028.90800886293</v>
+        <v>25279.17438878756</v>
       </c>
       <c r="R24">
-        <v>25028.90800886293</v>
+        <v>227512.569499088</v>
       </c>
       <c r="S24">
-        <v>0.1322666603012807</v>
+        <v>0.1290803606175623</v>
       </c>
       <c r="T24">
-        <v>0.1322666603012807</v>
+        <v>0.1665604000277759</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H25">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I25">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J25">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N25">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O25">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P25">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q25">
-        <v>1552.639619048963</v>
+        <v>1571.563701816091</v>
       </c>
       <c r="R25">
-        <v>1552.639619048963</v>
+        <v>9429.382210896543</v>
       </c>
       <c r="S25">
-        <v>0.008205010661685226</v>
+        <v>0.008024708649261456</v>
       </c>
       <c r="T25">
-        <v>0.008205010661685226</v>
+        <v>0.006903186388864628</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H26">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I26">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J26">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N26">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O26">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P26">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q26">
-        <v>10097.14328566412</v>
+        <v>10872.67798333948</v>
       </c>
       <c r="R26">
-        <v>10097.14328566412</v>
+        <v>65236.06790003688</v>
       </c>
       <c r="S26">
-        <v>0.05335891683749757</v>
+        <v>0.05551799965391998</v>
       </c>
       <c r="T26">
-        <v>0.05335891683749757</v>
+        <v>0.04775888026579053</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H27">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I27">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J27">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N27">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O27">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P27">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q27">
-        <v>1508.578766333059</v>
+        <v>1748.37709216049</v>
       </c>
       <c r="R27">
-        <v>1508.578766333059</v>
+        <v>15735.39382944441</v>
       </c>
       <c r="S27">
-        <v>0.007972168628117659</v>
+        <v>0.008927552066402169</v>
       </c>
       <c r="T27">
-        <v>0.007972168628117659</v>
+        <v>0.01151977447486638</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H28">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I28">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J28">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N28">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O28">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P28">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q28">
-        <v>281.3025200527129</v>
+        <v>334.5815236798284</v>
       </c>
       <c r="R28">
-        <v>281.3025200527129</v>
+        <v>3011.233713118455</v>
       </c>
       <c r="S28">
-        <v>0.001486558856204638</v>
+        <v>0.001708438063219402</v>
       </c>
       <c r="T28">
-        <v>0.001486558856204638</v>
+        <v>0.002204503658582017</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H29">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I29">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J29">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N29">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O29">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P29">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q29">
-        <v>322.5272104964534</v>
+        <v>354.4913165983567</v>
       </c>
       <c r="R29">
-        <v>322.5272104964534</v>
+        <v>3190.42184938521</v>
       </c>
       <c r="S29">
-        <v>0.001704413032064681</v>
+        <v>0.001810101322082971</v>
       </c>
       <c r="T29">
-        <v>0.001704413032064681</v>
+        <v>0.002335686070712182</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H30">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I30">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J30">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N30">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O30">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P30">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q30">
-        <v>6146.735218411569</v>
+        <v>6662.291597331316</v>
       </c>
       <c r="R30">
-        <v>6146.735218411569</v>
+        <v>59960.62437598184</v>
       </c>
       <c r="S30">
-        <v>0.03248276508138784</v>
+        <v>0.03401895127968725</v>
       </c>
       <c r="T30">
-        <v>0.03248276508138784</v>
+        <v>0.04389676405117818</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H31">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I31">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J31">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N31">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O31">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P31">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q31">
-        <v>381.3056736046933</v>
+        <v>414.1834493583875</v>
       </c>
       <c r="R31">
-        <v>381.3056736046933</v>
+        <v>2485.100696150325</v>
       </c>
       <c r="S31">
-        <v>0.002015031098590634</v>
+        <v>0.002114900913406402</v>
       </c>
       <c r="T31">
-        <v>0.002015031098590634</v>
+        <v>0.001819325266166279</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H32">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I32">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J32">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N32">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O32">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P32">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q32">
-        <v>3312.637548794228</v>
+        <v>3323.651503885832</v>
       </c>
       <c r="R32">
-        <v>3312.637548794228</v>
+        <v>13294.60601554333</v>
       </c>
       <c r="S32">
-        <v>0.01750581788116687</v>
+        <v>0.01697120831916786</v>
       </c>
       <c r="T32">
-        <v>0.01750581788116687</v>
+        <v>0.009732890367489996</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H33">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I33">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J33">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N33">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O33">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P33">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q33">
-        <v>494.9295583201057</v>
+        <v>534.4585906639661</v>
       </c>
       <c r="R33">
-        <v>494.9295583201057</v>
+        <v>3206.751543983796</v>
       </c>
       <c r="S33">
-        <v>0.002615482854474013</v>
+        <v>0.002729049080363091</v>
       </c>
       <c r="T33">
-        <v>0.002615482854474013</v>
+        <v>0.002347640928725787</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H34">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I34">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J34">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N34">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O34">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P34">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q34">
-        <v>92.28880527228912</v>
+        <v>102.2776896413997</v>
       </c>
       <c r="R34">
-        <v>92.28880527228912</v>
+        <v>613.6661378483981</v>
       </c>
       <c r="S34">
-        <v>0.0004877053386523459</v>
+        <v>0.0005222496929290019</v>
       </c>
       <c r="T34">
-        <v>0.0004877053386523459</v>
+        <v>0.000449260793056707</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H35">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I35">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J35">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N35">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O35">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P35">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q35">
-        <v>105.8136660807164</v>
+        <v>108.3638823233793</v>
       </c>
       <c r="R35">
-        <v>105.8136660807164</v>
+        <v>650.183293940276</v>
       </c>
       <c r="S35">
-        <v>0.0005591782199117638</v>
+        <v>0.0005533269715653783</v>
       </c>
       <c r="T35">
-        <v>0.0005591782199117638</v>
+        <v>0.0004759947539096448</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H36">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I36">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J36">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N36">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O36">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P36">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q36">
-        <v>2016.600667231868</v>
+        <v>2036.585238772521</v>
       </c>
       <c r="R36">
-        <v>2016.600667231868</v>
+        <v>12219.51143263513</v>
       </c>
       <c r="S36">
-        <v>0.01065683869714343</v>
+        <v>0.01039919868450141</v>
       </c>
       <c r="T36">
-        <v>0.01065683869714343</v>
+        <v>0.008945820957693706</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H37">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I37">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J37">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N37">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O37">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P37">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q37">
-        <v>125.0975108716706</v>
+        <v>126.6110747006425</v>
       </c>
       <c r="R37">
-        <v>125.0975108716706</v>
+        <v>506.44429880257</v>
       </c>
       <c r="S37">
-        <v>0.0006610847732206244</v>
+        <v>0.0006465006700450197</v>
       </c>
       <c r="T37">
-        <v>0.0006610847732206244</v>
+        <v>0.0003707644161641832</v>
       </c>
     </row>
   </sheetData>
